--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -156,6 +156,62 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックポスト報酬</t>
+    <rPh sb="7" eb="9">
+      <t>ホウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5元</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊谷洋子-&gt;628479738574</t>
+  </si>
+  <si>
+    <t>勝又大樹-&gt;628479738585</t>
+  </si>
+  <si>
+    <t>松島弘樹-&gt;628479738596</t>
+  </si>
+  <si>
+    <t>川島 秀夫-&gt;628479738600</t>
+  </si>
+  <si>
+    <t>川島 秀夫-&gt;628479738611</t>
+  </si>
+  <si>
+    <t>白下 宜生-&gt;628479738622</t>
+  </si>
+  <si>
+    <t>舩越 奈美子-&gt;628479738633</t>
+  </si>
+  <si>
+    <t>三瓶 明裕-&gt;628479738644</t>
+  </si>
+  <si>
+    <t>中田 啓一-&gt;628479738655</t>
+  </si>
+  <si>
+    <t>菅原 功人-&gt;628479738666</t>
+  </si>
+  <si>
+    <t>中野 健三-&gt;628479738670</t>
+  </si>
+  <si>
+    <t>岩崎 邦夫-&gt;628479738681</t>
+  </si>
+  <si>
+    <t>伊野 由紀子-&gt;628479738692</t>
+  </si>
+  <si>
+    <t>森安光明-&gt;628479738703</t>
   </si>
 </sst>
 </file>
@@ -232,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +308,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:F25"/>
+  <dimension ref="B1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -570,10 +635,30 @@
     <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6">
+        <f>SUM(E:E)</f>
+        <v>25252</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,8 +674,12 @@
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <f>COUNT(D9:D37)*LEFT(I2,1)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -607,7 +696,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -624,7 +713,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -641,7 +730,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -658,7 +747,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -675,7 +764,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -692,7 +781,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -709,7 +798,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -726,7 +815,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -743,7 +832,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -760,7 +849,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -777,7 +866,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -794,7 +883,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -930,14 +1019,264 @@
         <v>43997</v>
       </c>
     </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>198</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43998</v>
+      </c>
+    </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="1" t="s">
+      <c r="B25" s="3">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>198</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>198</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="F25" s="6">
-        <f>SUM(E4:E23)</f>
-        <v>22480</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>198</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>198</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>198</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>198</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>198</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>198</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>198</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>198</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>198</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>198</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>198</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -184,9 +184,6 @@
     <t>川島 秀夫-&gt;628479738600</t>
   </si>
   <si>
-    <t>川島 秀夫-&gt;628479738611</t>
-  </si>
-  <si>
     <t>白下 宜生-&gt;628479738622</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>中田 啓一-&gt;628479738655</t>
   </si>
   <si>
-    <t>菅原 功人-&gt;628479738666</t>
-  </si>
-  <si>
     <t>中野 健三-&gt;628479738670</t>
   </si>
   <si>
@@ -212,6 +206,13 @@
   </si>
   <si>
     <t>森安光明-&gt;628479738703</t>
+  </si>
+  <si>
+    <t>クリックポスト単価</t>
+    <rPh sb="7" eb="9">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -621,10 +622,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I40"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -647,7 +651,13 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>25252</v>
+        <v>24856</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -674,9 +684,9 @@
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <f>COUNT(D9:D37)*LEFT(I2,1)</f>
-        <v>145</v>
+      <c r="I3" s="1" t="str">
+        <f>COUNT(D9:D35)*LEFT(I2,1) &amp; "元"</f>
+        <v>135元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -775,6 +785,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
+        <f>$I$1</f>
         <v>198</v>
       </c>
       <c r="F9" s="4">
@@ -792,6 +803,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
+        <f t="shared" ref="E10:E35" si="0">$I$1</f>
         <v>198</v>
       </c>
       <c r="F10" s="4">
@@ -809,6 +821,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F11" s="4">
@@ -826,6 +839,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F12" s="4">
@@ -843,6 +857,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F13" s="4">
@@ -860,6 +875,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F14" s="4">
@@ -877,6 +893,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F15" s="4">
@@ -894,6 +911,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F16" s="4">
@@ -911,6 +929,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F17" s="4">
@@ -928,6 +947,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F18" s="4">
@@ -945,6 +965,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F19" s="4">
@@ -962,6 +983,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F20" s="4">
@@ -979,6 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F21" s="4">
@@ -996,6 +1019,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F22" s="4">
@@ -1013,6 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F23" s="4">
@@ -1030,6 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F24" s="4">
@@ -1047,6 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F25" s="4">
@@ -1064,6 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F26" s="4">
@@ -1081,6 +1109,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F27" s="4">
@@ -1089,7 +1118,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>32</v>
@@ -1098,6 +1127,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F28" s="4">
@@ -1106,7 +1136,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>33</v>
@@ -1115,6 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F29" s="4">
@@ -1123,7 +1154,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
@@ -1132,6 +1163,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F30" s="4">
@@ -1140,7 +1172,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -1149,6 +1181,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F31" s="4">
@@ -1157,7 +1190,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>36</v>
@@ -1166,6 +1199,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F32" s="4">
@@ -1174,7 +1208,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
@@ -1183,6 +1217,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F33" s="4">
@@ -1191,7 +1226,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -1200,6 +1235,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F34" s="4">
@@ -1208,7 +1244,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>39</v>
@@ -1217,6 +1253,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="5">
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F35" s="4">
@@ -1224,38 +1261,18 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>198</v>
-      </c>
-      <c r="F36" s="4">
-        <v>43998</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>198</v>
-      </c>
-      <c r="F37" s="4">
-        <v>43998</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
@@ -1263,20 +1280,6 @@
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -213,6 +213,30 @@
       <t>タンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恒松 宏昭-&gt;628480800426</t>
+  </si>
+  <si>
+    <t>恒松 宏昭-&gt;628480800415</t>
+  </si>
+  <si>
+    <t>安藤 晴教-&gt;628480800404</t>
+  </si>
+  <si>
+    <t>篠原 美津子-&gt;628480800393</t>
+  </si>
+  <si>
+    <t>三上 洋子-&gt;628480800382</t>
+  </si>
+  <si>
+    <t>染宮映美"-&gt;628480800371</t>
+  </si>
+  <si>
+    <t>染宮映美"-&gt;628480800360</t>
+  </si>
+  <si>
+    <t>西村光司"-&gt;628480800356</t>
   </si>
 </sst>
 </file>
@@ -289,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,15 +333,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,13 +637,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I38"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -651,7 +666,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>24856</v>
+        <v>26440</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>40</v>
@@ -685,8 +700,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D35)*LEFT(I2,1) &amp; "元"</f>
-        <v>135元</v>
+        <f>COUNT(D9:D43)*LEFT(I2,1) &amp; "元"</f>
+        <v>175元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -803,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E35" si="0">$I$1</f>
+        <f t="shared" ref="E10:E43" si="0">$I$1</f>
         <v>198</v>
       </c>
       <c r="F10" s="4">
@@ -1261,25 +1276,148 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43998</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43998</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -165,13 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5元</t>
-    <rPh sb="1" eb="2">
-      <t>ゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊谷洋子-&gt;628479738574</t>
   </si>
   <si>
@@ -237,6 +230,100 @@
   </si>
   <si>
     <t>西村光司"-&gt;628480800356</t>
+  </si>
+  <si>
+    <t>小沼和子-&gt;628482762390</t>
+  </si>
+  <si>
+    <t>小沼和子-&gt;628482762401</t>
+  </si>
+  <si>
+    <t>窪田仁-&gt;628482762412</t>
+  </si>
+  <si>
+    <t>出月茜-&gt;628482762423</t>
+  </si>
+  <si>
+    <t>森 真弓-&gt;628482762434</t>
+  </si>
+  <si>
+    <t>本間 純子-&gt;628482762445</t>
+  </si>
+  <si>
+    <t>藤原 進-&gt;628482762456</t>
+  </si>
+  <si>
+    <t>西岡美豊-&gt;628482762460</t>
+  </si>
+  <si>
+    <t>菊田一樹-&gt;628482762471</t>
+  </si>
+  <si>
+    <t>菊田一樹-&gt;628482762482</t>
+  </si>
+  <si>
+    <t>三宅孝司-&gt;628482762493</t>
+  </si>
+  <si>
+    <t>三宅孝司-&gt;628482762504</t>
+  </si>
+  <si>
+    <t>三宅孝司-&gt;628482762515</t>
+  </si>
+  <si>
+    <t>瀬藤 祥代-&gt;628482762526</t>
+  </si>
+  <si>
+    <t>笹子 明美-&gt;628482762530</t>
+  </si>
+  <si>
+    <t>松浦 弘一郎-&gt;628482762541</t>
+  </si>
+  <si>
+    <t>畠山 恵美-&gt;628482762552</t>
+  </si>
+  <si>
+    <t>畠山 恵美-&gt;628482762563</t>
+  </si>
+  <si>
+    <t>畠山 恵美-&gt;628482762574</t>
+  </si>
+  <si>
+    <t>石黒 由香里-&gt;628482762585</t>
+  </si>
+  <si>
+    <t>長谷川 祐嵩-&gt;628482773085</t>
+  </si>
+  <si>
+    <t>黒崎 さつき-&gt;628482773096</t>
+  </si>
+  <si>
+    <t>染宮映美-&gt;628482773100</t>
+  </si>
+  <si>
+    <t>染宮映美-&gt;628482773111</t>
+  </si>
+  <si>
+    <t>伊藤 英子-&gt;628482773122</t>
+  </si>
+  <si>
+    <t>宮城 真希-&gt;628482773133</t>
+  </si>
+  <si>
+    <t>宮城 真希-&gt;628482773144</t>
+  </si>
+  <si>
+    <t>東本 真紀子-&gt;628482773155</t>
+  </si>
+  <si>
+    <t>田中 真美-&gt;628482773166</t>
+  </si>
+  <si>
+    <t>10元</t>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -637,7 +724,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,10 +753,10 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>26440</v>
+        <v>32182</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1">
         <v>198</v>
@@ -680,7 +767,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -700,8 +787,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D43)*LEFT(I2,1) &amp; "元"</f>
-        <v>175元</v>
+        <f>COUNT(D9:D72)*LEFT(I2,2) &amp; "元"</f>
+        <v>640元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -818,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E43" si="0">$I$1</f>
+        <f t="shared" ref="E10:E72" si="0">$I$1</f>
         <v>198</v>
       </c>
       <c r="F10" s="4">
@@ -1064,7 +1151,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1082,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1100,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -1118,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1136,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1154,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1172,7 +1259,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1190,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1208,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1226,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -1244,7 +1331,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1262,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1280,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -1298,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -1316,7 +1403,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1334,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -1352,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -1370,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -1388,7 +1475,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -1406,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -1417,6 +1504,528 @@
       </c>
       <c r="F43" s="4">
         <v>43998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F45" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F46" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F47" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F49" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F51" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F53" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F54" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F55" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F56" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F58" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F59" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F60" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F61" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F62" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F63" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F64" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F65" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F66" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F67" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F68" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="3">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F69" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F70" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F71" s="4">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="3">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F72" s="4">
+        <v>44000</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -324,6 +324,36 @@
       <t>ゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺西秀晃-&gt;628484318744</t>
+  </si>
+  <si>
+    <t>寺西秀晃-&gt;628484318755</t>
+  </si>
+  <si>
+    <t>斉藤真由-&gt;628484318766</t>
+  </si>
+  <si>
+    <t>望月 俊二-&gt;628484318770</t>
+  </si>
+  <si>
+    <t>滝本 滋郎-&gt;628484318781</t>
+  </si>
+  <si>
+    <t>安永 孝子-&gt;628484318792</t>
+  </si>
+  <si>
+    <t>永田 たえ-&gt;628484318803</t>
+  </si>
+  <si>
+    <t>服部 雅子-&gt;628484318814</t>
+  </si>
+  <si>
+    <t>廣野 悦子-&gt;628484318825</t>
+  </si>
+  <si>
+    <t>木部 知明-&gt;628484318836</t>
   </si>
 </sst>
 </file>
@@ -724,13 +754,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I72"/>
+  <dimension ref="B1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -753,7 +783,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>32182</v>
+        <v>34162</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -787,8 +817,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D72)*LEFT(I2,2) &amp; "元"</f>
-        <v>640元</v>
+        <f>COUNT(D9:D82)*LEFT(I2,2) &amp; "元"</f>
+        <v>740元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -905,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E72" si="0">$I$1</f>
+        <f t="shared" ref="E10:E73" si="0">$I$1</f>
         <v>198</v>
       </c>
       <c r="F10" s="4">
@@ -2026,6 +2056,186 @@
       </c>
       <c r="F72" s="4">
         <v>44000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="3">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F73" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="3">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" ref="E74:E82" si="1">$I$1</f>
+        <v>198</v>
+      </c>
+      <c r="F74" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="3">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F75" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F76" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F77" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F78" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="3">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F79" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="3">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F80" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="3">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F81" s="4">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F82" s="4">
+        <v>44001</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -332,21 +332,12 @@
     <t>寺西秀晃-&gt;628484318755</t>
   </si>
   <si>
-    <t>斉藤真由-&gt;628484318766</t>
-  </si>
-  <si>
     <t>望月 俊二-&gt;628484318770</t>
   </si>
   <si>
     <t>滝本 滋郎-&gt;628484318781</t>
   </si>
   <si>
-    <t>安永 孝子-&gt;628484318792</t>
-  </si>
-  <si>
-    <t>永田 たえ-&gt;628484318803</t>
-  </si>
-  <si>
     <t>服部 雅子-&gt;628484318814</t>
   </si>
   <si>
@@ -354,6 +345,18 @@
   </si>
   <si>
     <t>木部 知明-&gt;628484318836</t>
+  </si>
+  <si>
+    <t>永田 たえ-&gt;628484508002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安永 孝子-&gt;628484507991</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斉藤真由-&gt;628484507980</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
   <dimension ref="B1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2102,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -2117,7 +2120,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -2135,7 +2138,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -2153,7 +2156,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -2171,7 +2174,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -2189,7 +2192,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -2207,7 +2210,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -2225,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -760,10 +760,10 @@
   <dimension ref="B1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -338,9 +338,6 @@
     <t>滝本 滋郎-&gt;628484318781</t>
   </si>
   <si>
-    <t>服部 雅子-&gt;628484318814</t>
-  </si>
-  <si>
     <t>廣野 悦子-&gt;628484318825</t>
   </si>
   <si>
@@ -357,6 +354,30 @@
   <si>
     <t>斉藤真由-&gt;628484507980</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永友みどり-&gt;628485255554</t>
+  </si>
+  <si>
+    <t>永友みどり-&gt;628485255565</t>
+  </si>
+  <si>
+    <t>明石雅彦-&gt;628485255576</t>
+  </si>
+  <si>
+    <t>伊瀬谷 智一-&gt;628485255580</t>
+  </si>
+  <si>
+    <t>楠元 健太郎-&gt;628485255591</t>
+  </si>
+  <si>
+    <t>當間 恵吾-&gt;628485255602</t>
+  </si>
+  <si>
+    <t>河村 之江-&gt;628485255613</t>
+  </si>
+  <si>
+    <t>河村 之江-&gt;628485255624</t>
   </si>
 </sst>
 </file>
@@ -757,10 +778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I82"/>
+  <dimension ref="B1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -786,7 +807,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>34162</v>
+        <v>35548</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -820,8 +841,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D82)*LEFT(I2,2) &amp; "元"</f>
-        <v>740元</v>
+        <f>COUNT(D9:D89)*LEFT(I2,2) &amp; "元"</f>
+        <v>810元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2090,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E82" si="1">$I$1</f>
+        <f t="shared" ref="E74:E89" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -2102,7 +2123,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -2156,7 +2177,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -2174,7 +2195,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -2189,7 +2210,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>82</v>
@@ -2207,7 +2228,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>83</v>
@@ -2225,10 +2246,10 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -2238,7 +2259,133 @@
         <v>198</v>
       </c>
       <c r="F82" s="4">
-        <v>44001</v>
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="3">
+        <v>83</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F83" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F84" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <v>85</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F85" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="3">
+        <v>86</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F86" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="3">
+        <v>87</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F87" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="3">
+        <v>88</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F88" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="3">
+        <v>89</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F89" s="4">
+        <v>44002</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -378,6 +378,16 @@
   </si>
   <si>
     <t>河村 之江-&gt;628485255624</t>
+  </si>
+  <si>
+    <t>服部 雅子-&gt;628484318814</t>
+    <rPh sb="0" eb="2">
+      <t>ハットリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -778,13 +788,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I89"/>
+  <dimension ref="B1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -807,7 +817,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>35548</v>
+        <v>35746</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -841,8 +851,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D89)*LEFT(I2,2) &amp; "元"</f>
-        <v>810元</v>
+        <f>COUNT(D9:D90)*LEFT(I2,2) &amp; "元"</f>
+        <v>820元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2111,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E89" si="1">$I$1</f>
+        <f t="shared" ref="E74:E90" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -2385,6 +2395,24 @@
         <v>198</v>
       </c>
       <c r="F89" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="3">
+        <v>90</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F90" s="4">
         <v>44002</v>
       </c>
     </row>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -387,6 +387,14 @@
     <rPh sb="3" eb="5">
       <t>マサコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森戸 剛-&gt; 628485606405</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部 優子-&gt;628485606416</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,13 +796,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I90"/>
+  <dimension ref="B1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -817,7 +825,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>35746</v>
+        <v>38912</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -851,8 +859,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D90)*LEFT(I2,2) &amp; "元"</f>
-        <v>820元</v>
+        <f>COUNT(D9:D92)*LEFT(I2,2) &amp; "元"</f>
+        <v>840元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -880,14 +888,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>2770</v>
+        <v>5540</v>
       </c>
       <c r="F5" s="4">
         <v>43996</v>
       </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
@@ -2121,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E90" si="1">$I$1</f>
+        <f t="shared" ref="E74:E92" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -2414,6 +2423,42 @@
       </c>
       <c r="F90" s="4">
         <v>44002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="3">
+        <v>91</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F91" s="4">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="3">
+        <v>92</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F92" s="4">
+        <v>44003</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -396,6 +396,57 @@
   <si>
     <t>渡部 優子-&gt;628485606416</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田代 陽一-&gt;628488317166</t>
+  </si>
+  <si>
+    <t>原 久美子-&gt;628488317170</t>
+  </si>
+  <si>
+    <t>涌田 圭-&gt;628488317181</t>
+  </si>
+  <si>
+    <t>鈴木久志-&gt;628488317192</t>
+  </si>
+  <si>
+    <t>堀尾 秀人-&gt;628488317203</t>
+  </si>
+  <si>
+    <t>緑川 善則-&gt;628488317214</t>
+  </si>
+  <si>
+    <t>瀧本 麻里-&gt;628488317225</t>
+  </si>
+  <si>
+    <t>河野 壱隆-&gt;628488317236</t>
+  </si>
+  <si>
+    <t>勝田 政臣-&gt;628488317240</t>
+  </si>
+  <si>
+    <t>岡田 佳祐-&gt;628488317251</t>
+  </si>
+  <si>
+    <t>白鳥茂-&gt;628488317262</t>
+  </si>
+  <si>
+    <t>工藤 晴子-&gt;628488317273</t>
+  </si>
+  <si>
+    <t>五関 えりな-&gt;628488317284</t>
+  </si>
+  <si>
+    <t>佐々木 容子-&gt;628488317295</t>
+  </si>
+  <si>
+    <t>井本 美佳子-&gt;628488317306</t>
+  </si>
+  <si>
+    <t>井本 美佳子-&gt;628488317310</t>
+  </si>
+  <si>
+    <t>渡辺 真一-&gt;628488317321</t>
   </si>
 </sst>
 </file>
@@ -796,13 +847,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I92"/>
+  <dimension ref="B1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -825,7 +876,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>38912</v>
+        <v>42278</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -859,8 +910,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D92)*LEFT(I2,2) &amp; "元"</f>
-        <v>840元</v>
+        <f>COUNT(D9:D109)*LEFT(I2,2) &amp; "元"</f>
+        <v>1010元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2130,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E92" si="1">$I$1</f>
+        <f t="shared" ref="E74:E109" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -2459,6 +2510,312 @@
       </c>
       <c r="F92" s="4">
         <v>44003</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="3">
+        <v>93</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F93" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="3">
+        <v>94</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F94" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="3">
+        <v>95</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F95" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="3">
+        <v>96</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F96" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="3">
+        <v>97</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F97" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="3">
+        <v>98</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F98" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="3">
+        <v>99</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F99" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="3">
+        <v>100</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F100" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
+        <v>101</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F101" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="3">
+        <v>102</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F102" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="3">
+        <v>103</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F103" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="3">
+        <v>104</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F104" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
+        <v>105</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F105" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="3">
+        <v>106</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F106" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="3">
+        <v>107</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F107" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="3">
+        <v>108</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F108" s="4">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
+        <v>109</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F109" s="4">
+        <v>44004</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -447,6 +447,36 @@
   </si>
   <si>
     <t>渡辺 真一-&gt;628488317321</t>
+  </si>
+  <si>
+    <t>舩越奈美子-&gt;628490260591</t>
+  </si>
+  <si>
+    <t>宮下周-&gt;628490260602</t>
+  </si>
+  <si>
+    <t>遠藤拓也-&gt;628490260613</t>
+  </si>
+  <si>
+    <t>遠藤拓也-&gt;628490260624</t>
+  </si>
+  <si>
+    <t>森崎 健次-&gt;628490260635</t>
+  </si>
+  <si>
+    <t>鈴木 昭彦-&gt;628490260646</t>
+  </si>
+  <si>
+    <t>栗山 智行-&gt;628490260650</t>
+  </si>
+  <si>
+    <t>矢内 信子-&gt;628490260661</t>
+  </si>
+  <si>
+    <t>小川豊美-&gt;628490260672</t>
+  </si>
+  <si>
+    <t>八木玉枝-&gt;628490260694</t>
   </si>
 </sst>
 </file>
@@ -847,10 +877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I109"/>
+  <dimension ref="B1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -876,7 +906,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>42278</v>
+        <v>44258</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -910,8 +940,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D109)*LEFT(I2,2) &amp; "元"</f>
-        <v>1010元</v>
+        <f>COUNT(D9:D119)*LEFT(I2,2) &amp; "元"</f>
+        <v>1110元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2181,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E109" si="1">$I$1</f>
+        <f t="shared" ref="E74:E119" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -2816,6 +2846,186 @@
       </c>
       <c r="F109" s="4">
         <v>44004</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
+        <v>110</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F110" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="3">
+        <v>111</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F111" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="3">
+        <v>112</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F112" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113" s="3">
+        <v>113</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F113" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="3">
+        <v>114</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F114" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="3">
+        <v>115</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F115" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="3">
+        <v>116</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F116" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="3">
+        <v>117</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F117" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>118</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F118" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>119</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F119" s="4">
+        <v>44005</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -477,6 +477,30 @@
   </si>
   <si>
     <t>八木玉枝-&gt;628490260694</t>
+  </si>
+  <si>
+    <t>藁科かず代-&gt;628491614026</t>
+  </si>
+  <si>
+    <t>立神堅太郎-&gt;628491614030</t>
+  </si>
+  <si>
+    <t>恒松 宏昭-&gt;628491614041</t>
+  </si>
+  <si>
+    <t>伊東伸一-&gt;628491614052</t>
+  </si>
+  <si>
+    <t>森本 和宏-&gt;628491614063</t>
+  </si>
+  <si>
+    <t>松本 和廣-&gt;628491614074</t>
+  </si>
+  <si>
+    <t>山田 理恵子-&gt;628491614085</t>
+  </si>
+  <si>
+    <t>倉地 有子-&gt;628491614096</t>
   </si>
 </sst>
 </file>
@@ -877,13 +901,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I119"/>
+  <dimension ref="B1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -906,7 +930,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>44258</v>
+        <v>45842</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -940,8 +964,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D119)*LEFT(I2,2) &amp; "元"</f>
-        <v>1110元</v>
+        <f>COUNT(D9:D127)*LEFT(I2,2) &amp; "元"</f>
+        <v>1190元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2211,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E119" si="1">$I$1</f>
+        <f t="shared" ref="E74:E127" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -3026,6 +3050,150 @@
       </c>
       <c r="F119" s="4">
         <v>44005</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>120</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F120" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>121</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F121" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>122</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F122" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>123</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F123" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>124</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F124" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>125</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F125" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>126</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F126" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>127</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F127" s="4">
+        <v>44006</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -501,6 +501,51 @@
   </si>
   <si>
     <t>倉地 有子-&gt;628491614096</t>
+  </si>
+  <si>
+    <t>宮本 龍-&gt;628493845254</t>
+  </si>
+  <si>
+    <t>西山 祐理-&gt;628493845265</t>
+  </si>
+  <si>
+    <t>青島 克之-&gt;628493845276</t>
+  </si>
+  <si>
+    <t>赤羽 彩夏-&gt;628493845280</t>
+  </si>
+  <si>
+    <t>堀端 則子-&gt;628493845291</t>
+  </si>
+  <si>
+    <t>柿澤三弥-&gt;628493845151</t>
+  </si>
+  <si>
+    <t>松本あゆみ-&gt;628493845162</t>
+  </si>
+  <si>
+    <t>川名康寛-&gt;628493845173</t>
+  </si>
+  <si>
+    <t>伊東伸一-&gt;628493845184</t>
+  </si>
+  <si>
+    <t>嵯峨愛-&gt;628493845195</t>
+  </si>
+  <si>
+    <t>橋本美雪-&gt;628493845206</t>
+  </si>
+  <si>
+    <t>前川 友美-&gt;628493845210</t>
+  </si>
+  <si>
+    <t>日高 実禎-&gt;628493845221</t>
+  </si>
+  <si>
+    <t>長尾 英樹-&gt;628493845232</t>
+  </si>
+  <si>
+    <t>大田黒 敦-&gt;628493845243</t>
   </si>
 </sst>
 </file>
@@ -901,13 +946,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I127"/>
+  <dimension ref="B1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -930,7 +975,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>45842</v>
+        <v>48812</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -964,8 +1009,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D127)*LEFT(I2,2) &amp; "元"</f>
-        <v>1190元</v>
+        <f>COUNT(D9:D142)*LEFT(I2,2) &amp; "元"</f>
+        <v>1340元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2235,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" ref="E74:E127" si="1">$I$1</f>
+        <f t="shared" ref="E74:E137" si="1">$I$1</f>
         <v>198</v>
       </c>
       <c r="F74" s="4">
@@ -3194,6 +3239,276 @@
       </c>
       <c r="F127" s="4">
         <v>44006</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>128</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F128" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>129</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F129" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>130</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F130" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>131</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F131" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>132</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F132" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>133</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F133" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="3">
+        <v>134</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F134" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>135</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F135" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="3">
+        <v>136</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F136" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
+        <v>137</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F137" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="3">
+        <v>138</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" ref="E138:E142" si="2">$I$1</f>
+        <v>198</v>
+      </c>
+      <c r="F138" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="3">
+        <v>139</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="F139" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="3">
+        <v>140</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="F140" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141" s="3">
+        <v>141</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="F141" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
+        <v>142</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="F142" s="4">
+        <v>44007</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -546,6 +546,10 @@
   </si>
   <si>
     <t>大田黒 敦-&gt;628493845243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松本あゆみ-&gt;628494532805 </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -946,13 +950,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:I142"/>
+  <dimension ref="B1:I143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -975,7 +979,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>48812</v>
+        <v>49010</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -1009,8 +1013,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D9:D142)*LEFT(I2,2) &amp; "元"</f>
-        <v>1340元</v>
+        <f>COUNT(D9:D143)*LEFT(I2,2) &amp; "元"</f>
+        <v>1350元</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -3432,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" ref="E138:E142" si="2">$I$1</f>
+        <f t="shared" ref="E138:E143" si="2">$I$1</f>
         <v>198</v>
       </c>
       <c r="F138" s="4">
@@ -3508,6 +3512,24 @@
         <v>198</v>
       </c>
       <c r="F142" s="4">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="3">
+        <v>143</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="F143" s="4">
         <v>44007</v>
       </c>
     </row>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -419,6 +419,48 @@
   </si>
   <si>
     <t>清水 公人-&gt;628530729945</t>
+  </si>
+  <si>
+    <t>白石田 文宏-&gt;628534008756</t>
+  </si>
+  <si>
+    <t>只野 肇-&gt;628534008760</t>
+  </si>
+  <si>
+    <t>佐久間由美子-&gt;628534008771</t>
+  </si>
+  <si>
+    <t>栗林 恭子-&gt;628534008782</t>
+  </si>
+  <si>
+    <t>井上 靖-&gt;628534008793</t>
+  </si>
+  <si>
+    <t>井上 靖-&gt;628534008804</t>
+  </si>
+  <si>
+    <t>竹下 正子-&gt;628534008815</t>
+  </si>
+  <si>
+    <t>岡安 真弓-&gt;628534008826</t>
+  </si>
+  <si>
+    <t>岡安 真弓-&gt;628534008830</t>
+  </si>
+  <si>
+    <t>森山 ミキ-&gt;628534008841</t>
+  </si>
+  <si>
+    <t>黒田 美恵子-&gt;628534008852</t>
+  </si>
+  <si>
+    <t>荒木 早織-&gt;628534008863</t>
+  </si>
+  <si>
+    <t>荒木 早織-&gt;628534008874</t>
+  </si>
+  <si>
+    <t>荒木 早織-&gt;628534008885</t>
   </si>
 </sst>
 </file>
@@ -825,13 +867,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -852,7 +894,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>21978</v>
+        <v>24750</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -901,7 +943,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1110元</v>
+        <v>1250元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -2805,6 +2847,244 @@
       </c>
       <c r="F114" s="8">
         <v>44032</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B115" s="3">
+        <v>112</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <v>198</v>
+      </c>
+      <c r="F115" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B116" s="3">
+        <v>113</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>198</v>
+      </c>
+      <c r="F116" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B117" s="3">
+        <v>114</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>198</v>
+      </c>
+      <c r="F117" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>115</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <v>198</v>
+      </c>
+      <c r="F118" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>116</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>198</v>
+      </c>
+      <c r="F119" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>117</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <v>198</v>
+      </c>
+      <c r="F120" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>118</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>198</v>
+      </c>
+      <c r="F121" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>119</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>198</v>
+      </c>
+      <c r="F122" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>120</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>198</v>
+      </c>
+      <c r="F123" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>121</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <v>198</v>
+      </c>
+      <c r="F124" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>122</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <v>198</v>
+      </c>
+      <c r="F125" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>123</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <v>198</v>
+      </c>
+      <c r="F126" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>124</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5">
+        <v>198</v>
+      </c>
+      <c r="F127" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>125</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <v>198</v>
+      </c>
+      <c r="F128" s="8">
+        <v>44035</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -537,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,12 +557,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +867,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1028,7 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3">
@@ -1051,7 +1045,7 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="3">
@@ -1068,7 +1062,7 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="3">
@@ -1085,7 +1079,7 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3">
@@ -1102,7 +1096,7 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="3">
@@ -1119,7 +1113,7 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3">
@@ -1136,7 +1130,7 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3">
@@ -1153,7 +1147,7 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3">
@@ -1162,7 +1156,7 @@
       <c r="E15" s="5">
         <v>198</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1170,7 +1164,7 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="3">
@@ -1179,7 +1173,7 @@
       <c r="E16" s="5">
         <v>198</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3">
@@ -1196,7 +1190,7 @@
       <c r="E17" s="5">
         <v>198</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1204,7 +1198,7 @@
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="3">
@@ -1213,7 +1207,7 @@
       <c r="E18" s="5">
         <v>198</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1221,7 +1215,7 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3">
@@ -1230,7 +1224,7 @@
       <c r="E19" s="5">
         <v>198</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1238,7 +1232,7 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3">
@@ -1247,7 +1241,7 @@
       <c r="E20" s="5">
         <v>198</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1255,7 +1249,7 @@
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3">
@@ -1264,7 +1258,7 @@
       <c r="E21" s="5">
         <v>198</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1272,7 +1266,7 @@
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3">
@@ -1281,7 +1275,7 @@
       <c r="E22" s="5">
         <v>198</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1289,7 +1283,7 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3">
@@ -1298,7 +1292,7 @@
       <c r="E23" s="5">
         <v>198</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>44016</v>
       </c>
     </row>
@@ -1306,7 +1300,7 @@
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3">
@@ -1315,7 +1309,7 @@
       <c r="E24" s="5">
         <v>198</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1323,7 +1317,7 @@
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3">
@@ -1332,7 +1326,7 @@
       <c r="E25" s="5">
         <v>198</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1340,7 +1334,7 @@
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3">
@@ -1349,7 +1343,7 @@
       <c r="E26" s="5">
         <v>198</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1357,7 +1351,7 @@
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="3">
@@ -1366,7 +1360,7 @@
       <c r="E27" s="5">
         <v>198</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1374,7 +1368,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3">
@@ -1383,7 +1377,7 @@
       <c r="E28" s="5">
         <v>198</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1391,7 +1385,7 @@
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="3">
@@ -1400,7 +1394,7 @@
       <c r="E29" s="5">
         <v>198</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1408,7 +1402,7 @@
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3">
@@ -1417,7 +1411,7 @@
       <c r="E30" s="5">
         <v>198</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1425,7 +1419,7 @@
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="3">
@@ -1434,7 +1428,7 @@
       <c r="E31" s="5">
         <v>198</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1442,7 +1436,7 @@
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="3">
@@ -1451,7 +1445,7 @@
       <c r="E32" s="5">
         <v>198</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1459,7 +1453,7 @@
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="3">
@@ -1468,7 +1462,7 @@
       <c r="E33" s="5">
         <v>198</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1476,7 +1470,7 @@
       <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="3">
@@ -1485,7 +1479,7 @@
       <c r="E34" s="5">
         <v>198</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1493,7 +1487,7 @@
       <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="3">
@@ -1502,7 +1496,7 @@
       <c r="E35" s="5">
         <v>198</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <v>44018</v>
       </c>
     </row>
@@ -1510,7 +1504,7 @@
       <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3">
@@ -1519,7 +1513,7 @@
       <c r="E36" s="5">
         <v>198</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1527,7 +1521,7 @@
       <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="3">
@@ -1536,7 +1530,7 @@
       <c r="E37" s="5">
         <v>198</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1544,7 +1538,7 @@
       <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="3">
@@ -1553,7 +1547,7 @@
       <c r="E38" s="5">
         <v>198</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1561,7 +1555,7 @@
       <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="3">
@@ -1570,7 +1564,7 @@
       <c r="E39" s="5">
         <v>198</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1578,7 +1572,7 @@
       <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="3">
@@ -1587,7 +1581,7 @@
       <c r="E40" s="5">
         <v>198</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1595,7 +1589,7 @@
       <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="3">
@@ -1604,7 +1598,7 @@
       <c r="E41" s="5">
         <v>198</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1612,7 +1606,7 @@
       <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="3">
@@ -1621,7 +1615,7 @@
       <c r="E42" s="5">
         <v>198</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1629,7 +1623,7 @@
       <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="3">
@@ -1638,7 +1632,7 @@
       <c r="E43" s="5">
         <v>198</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1646,7 +1640,7 @@
       <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3">
@@ -1655,7 +1649,7 @@
       <c r="E44" s="5">
         <v>198</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1663,7 +1657,7 @@
       <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="3">
@@ -1672,7 +1666,7 @@
       <c r="E45" s="5">
         <v>198</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1680,7 +1674,7 @@
       <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="3">
@@ -1689,7 +1683,7 @@
       <c r="E46" s="5">
         <v>198</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="4">
         <v>44020</v>
       </c>
     </row>
@@ -1697,7 +1691,7 @@
       <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="3">
@@ -1706,7 +1700,7 @@
       <c r="E47" s="5">
         <v>198</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1714,7 +1708,7 @@
       <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D48" s="3">
@@ -1723,7 +1717,7 @@
       <c r="E48" s="5">
         <v>198</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1731,7 +1725,7 @@
       <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="3">
@@ -1740,7 +1734,7 @@
       <c r="E49" s="5">
         <v>198</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1748,7 +1742,7 @@
       <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="3">
@@ -1757,7 +1751,7 @@
       <c r="E50" s="5">
         <v>198</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1765,7 +1759,7 @@
       <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="3">
@@ -1774,7 +1768,7 @@
       <c r="E51" s="5">
         <v>198</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1782,7 +1776,7 @@
       <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="3">
@@ -1791,7 +1785,7 @@
       <c r="E52" s="5">
         <v>198</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1799,7 +1793,7 @@
       <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="3">
@@ -1808,7 +1802,7 @@
       <c r="E53" s="5">
         <v>198</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1816,7 +1810,7 @@
       <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="3">
@@ -1825,7 +1819,7 @@
       <c r="E54" s="5">
         <v>198</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1833,7 +1827,7 @@
       <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="3">
@@ -1842,7 +1836,7 @@
       <c r="E55" s="5">
         <v>198</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1850,7 +1844,7 @@
       <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="3">
@@ -1859,7 +1853,7 @@
       <c r="E56" s="5">
         <v>198</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1867,7 +1861,7 @@
       <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D57" s="3">
@@ -1876,7 +1870,7 @@
       <c r="E57" s="5">
         <v>198</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1884,7 +1878,7 @@
       <c r="B58" s="3">
         <v>55</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="3">
@@ -1893,7 +1887,7 @@
       <c r="E58" s="5">
         <v>198</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1901,7 +1895,7 @@
       <c r="B59" s="3">
         <v>56</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D59" s="3">
@@ -1910,7 +1904,7 @@
       <c r="E59" s="5">
         <v>198</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1918,7 +1912,7 @@
       <c r="B60" s="3">
         <v>57</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="3">
@@ -1927,7 +1921,7 @@
       <c r="E60" s="5">
         <v>198</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1935,7 +1929,7 @@
       <c r="B61" s="3">
         <v>58</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="3">
@@ -1944,7 +1938,7 @@
       <c r="E61" s="5">
         <v>198</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1952,7 +1946,7 @@
       <c r="B62" s="3">
         <v>59</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="3">
@@ -1961,7 +1955,7 @@
       <c r="E62" s="5">
         <v>198</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1969,7 +1963,7 @@
       <c r="B63" s="3">
         <v>60</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="3">
@@ -1978,7 +1972,7 @@
       <c r="E63" s="5">
         <v>198</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -1986,7 +1980,7 @@
       <c r="B64" s="3">
         <v>61</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D64" s="3">
@@ -1995,7 +1989,7 @@
       <c r="E64" s="5">
         <v>198</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -2003,7 +1997,7 @@
       <c r="B65" s="3">
         <v>62</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="3">
@@ -2012,7 +2006,7 @@
       <c r="E65" s="5">
         <v>198</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -2020,7 +2014,7 @@
       <c r="B66" s="3">
         <v>63</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="3">
@@ -2029,7 +2023,7 @@
       <c r="E66" s="5">
         <v>198</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -2037,7 +2031,7 @@
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D67" s="3">
@@ -2046,7 +2040,7 @@
       <c r="E67" s="5">
         <v>198</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -2054,7 +2048,7 @@
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="3">
@@ -2063,7 +2057,7 @@
       <c r="E68" s="5">
         <v>198</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="4">
         <v>44023</v>
       </c>
     </row>
@@ -2071,7 +2065,7 @@
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="3">
@@ -2080,7 +2074,7 @@
       <c r="E69" s="5">
         <v>198</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2088,7 +2082,7 @@
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D70" s="3">
@@ -2097,7 +2091,7 @@
       <c r="E70" s="5">
         <v>198</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2105,7 +2099,7 @@
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="3">
@@ -2114,7 +2108,7 @@
       <c r="E71" s="5">
         <v>198</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2122,7 +2116,7 @@
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D72" s="3">
@@ -2131,7 +2125,7 @@
       <c r="E72" s="5">
         <v>198</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2139,7 +2133,7 @@
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D73" s="3">
@@ -2148,7 +2142,7 @@
       <c r="E73" s="5">
         <v>198</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2156,7 +2150,7 @@
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="3">
@@ -2165,7 +2159,7 @@
       <c r="E74" s="5">
         <v>198</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2173,7 +2167,7 @@
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="3">
@@ -2182,7 +2176,7 @@
       <c r="E75" s="5">
         <v>198</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2190,7 +2184,7 @@
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="3">
@@ -2199,7 +2193,7 @@
       <c r="E76" s="5">
         <v>198</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2207,7 +2201,7 @@
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D77" s="3">
@@ -2216,7 +2210,7 @@
       <c r="E77" s="5">
         <v>198</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2224,7 +2218,7 @@
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D78" s="3">
@@ -2233,7 +2227,7 @@
       <c r="E78" s="5">
         <v>198</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2241,7 +2235,7 @@
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D79" s="3">
@@ -2250,7 +2244,7 @@
       <c r="E79" s="5">
         <v>198</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="4">
         <v>44026</v>
       </c>
     </row>
@@ -2258,7 +2252,7 @@
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="3">
@@ -2267,7 +2261,7 @@
       <c r="E80" s="5">
         <v>198</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2275,7 +2269,7 @@
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="3">
@@ -2284,7 +2278,7 @@
       <c r="E81" s="5">
         <v>198</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2292,7 +2286,7 @@
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D82" s="3">
@@ -2301,7 +2295,7 @@
       <c r="E82" s="5">
         <v>198</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2309,7 +2303,7 @@
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D83" s="3">
@@ -2318,7 +2312,7 @@
       <c r="E83" s="5">
         <v>198</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2326,7 +2320,7 @@
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D84" s="3">
@@ -2335,7 +2329,7 @@
       <c r="E84" s="5">
         <v>198</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2343,7 +2337,7 @@
       <c r="B85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D85" s="3">
@@ -2352,7 +2346,7 @@
       <c r="E85" s="5">
         <v>198</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2360,7 +2354,7 @@
       <c r="B86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D86" s="3">
@@ -2369,7 +2363,7 @@
       <c r="E86" s="5">
         <v>198</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2377,7 +2371,7 @@
       <c r="B87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="3">
@@ -2386,7 +2380,7 @@
       <c r="E87" s="5">
         <v>198</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2394,7 +2388,7 @@
       <c r="B88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D88" s="3">
@@ -2403,7 +2397,7 @@
       <c r="E88" s="5">
         <v>198</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2411,7 +2405,7 @@
       <c r="B89" s="3">
         <v>86</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D89" s="3">
@@ -2420,7 +2414,7 @@
       <c r="E89" s="5">
         <v>198</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2428,7 +2422,7 @@
       <c r="B90" s="3">
         <v>87</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D90" s="3">
@@ -2437,7 +2431,7 @@
       <c r="E90" s="5">
         <v>198</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2445,7 +2439,7 @@
       <c r="B91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D91" s="3">
@@ -2454,7 +2448,7 @@
       <c r="E91" s="5">
         <v>198</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2462,7 +2456,7 @@
       <c r="B92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="3">
@@ -2471,7 +2465,7 @@
       <c r="E92" s="5">
         <v>198</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2479,7 +2473,7 @@
       <c r="B93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D93" s="3">
@@ -2488,7 +2482,7 @@
       <c r="E93" s="5">
         <v>198</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="4">
         <v>44028</v>
       </c>
     </row>
@@ -2496,7 +2490,7 @@
       <c r="B94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D94" s="3">
@@ -2505,7 +2499,7 @@
       <c r="E94" s="5">
         <v>198</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2513,7 +2507,7 @@
       <c r="B95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D95" s="3">
@@ -2522,7 +2516,7 @@
       <c r="E95" s="5">
         <v>198</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2530,7 +2524,7 @@
       <c r="B96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D96" s="3">
@@ -2539,7 +2533,7 @@
       <c r="E96" s="5">
         <v>198</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2547,7 +2541,7 @@
       <c r="B97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D97" s="3">
@@ -2556,7 +2550,7 @@
       <c r="E97" s="5">
         <v>198</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2564,7 +2558,7 @@
       <c r="B98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D98" s="3">
@@ -2573,7 +2567,7 @@
       <c r="E98" s="5">
         <v>198</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2581,7 +2575,7 @@
       <c r="B99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="3">
@@ -2590,7 +2584,7 @@
       <c r="E99" s="5">
         <v>198</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2598,7 +2592,7 @@
       <c r="B100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D100" s="3">
@@ -2607,7 +2601,7 @@
       <c r="E100" s="5">
         <v>198</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="4">
         <v>44031</v>
       </c>
     </row>
@@ -2615,7 +2609,7 @@
       <c r="B101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D101" s="3">
@@ -2624,7 +2618,7 @@
       <c r="E101" s="5">
         <v>198</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2632,7 +2626,7 @@
       <c r="B102" s="3">
         <v>99</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D102" s="3">
@@ -2641,7 +2635,7 @@
       <c r="E102" s="5">
         <v>198</v>
       </c>
-      <c r="F102" s="8">
+      <c r="F102" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2649,7 +2643,7 @@
       <c r="B103" s="3">
         <v>100</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="3">
@@ -2658,7 +2652,7 @@
       <c r="E103" s="5">
         <v>198</v>
       </c>
-      <c r="F103" s="8">
+      <c r="F103" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2666,7 +2660,7 @@
       <c r="B104" s="3">
         <v>101</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D104" s="3">
@@ -2675,7 +2669,7 @@
       <c r="E104" s="5">
         <v>198</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2683,7 +2677,7 @@
       <c r="B105" s="3">
         <v>102</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D105" s="3">
@@ -2692,7 +2686,7 @@
       <c r="E105" s="5">
         <v>198</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F105" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2700,7 +2694,7 @@
       <c r="B106" s="3">
         <v>103</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="3">
@@ -2709,7 +2703,7 @@
       <c r="E106" s="5">
         <v>198</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F106" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2717,7 +2711,7 @@
       <c r="B107" s="3">
         <v>104</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="3">
@@ -2726,7 +2720,7 @@
       <c r="E107" s="5">
         <v>198</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2734,7 +2728,7 @@
       <c r="B108" s="3">
         <v>105</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D108" s="3">
@@ -2743,7 +2737,7 @@
       <c r="E108" s="5">
         <v>198</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F108" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2751,7 +2745,7 @@
       <c r="B109" s="3">
         <v>106</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D109" s="3">
@@ -2760,7 +2754,7 @@
       <c r="E109" s="5">
         <v>198</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2768,7 +2762,7 @@
       <c r="B110" s="3">
         <v>107</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D110" s="3">
@@ -2777,7 +2771,7 @@
       <c r="E110" s="5">
         <v>198</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F110" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2785,7 +2779,7 @@
       <c r="B111" s="3">
         <v>108</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D111" s="3">
@@ -2794,7 +2788,7 @@
       <c r="E111" s="5">
         <v>198</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2802,7 +2796,7 @@
       <c r="B112" s="3">
         <v>109</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="3">
@@ -2811,7 +2805,7 @@
       <c r="E112" s="5">
         <v>198</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2819,7 +2813,7 @@
       <c r="B113" s="3">
         <v>110</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="3">
@@ -2828,7 +2822,7 @@
       <c r="E113" s="5">
         <v>198</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2836,7 +2830,7 @@
       <c r="B114" s="3">
         <v>111</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D114" s="3">
@@ -2845,7 +2839,7 @@
       <c r="E114" s="5">
         <v>198</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="4">
         <v>44032</v>
       </c>
     </row>
@@ -2853,7 +2847,7 @@
       <c r="B115" s="3">
         <v>112</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D115" s="3">
@@ -2862,7 +2856,7 @@
       <c r="E115" s="5">
         <v>198</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F115" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2870,7 +2864,7 @@
       <c r="B116" s="3">
         <v>113</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D116" s="3">
@@ -2879,7 +2873,7 @@
       <c r="E116" s="5">
         <v>198</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2887,7 +2881,7 @@
       <c r="B117" s="3">
         <v>114</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D117" s="3">
@@ -2896,7 +2890,7 @@
       <c r="E117" s="5">
         <v>198</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F117" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2904,7 +2898,7 @@
       <c r="B118" s="3">
         <v>115</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D118" s="3">
@@ -2913,7 +2907,7 @@
       <c r="E118" s="5">
         <v>198</v>
       </c>
-      <c r="F118" s="8">
+      <c r="F118" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2921,7 +2915,7 @@
       <c r="B119" s="3">
         <v>116</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D119" s="3">
@@ -2930,7 +2924,7 @@
       <c r="E119" s="5">
         <v>198</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F119" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2938,7 +2932,7 @@
       <c r="B120" s="3">
         <v>117</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D120" s="3">
@@ -2947,7 +2941,7 @@
       <c r="E120" s="5">
         <v>198</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F120" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2955,7 +2949,7 @@
       <c r="B121" s="3">
         <v>118</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="3">
@@ -2964,7 +2958,7 @@
       <c r="E121" s="5">
         <v>198</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F121" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2972,7 +2966,7 @@
       <c r="B122" s="3">
         <v>119</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="3">
@@ -2981,7 +2975,7 @@
       <c r="E122" s="5">
         <v>198</v>
       </c>
-      <c r="F122" s="8">
+      <c r="F122" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -2989,7 +2983,7 @@
       <c r="B123" s="3">
         <v>120</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D123" s="3">
@@ -2998,7 +2992,7 @@
       <c r="E123" s="5">
         <v>198</v>
       </c>
-      <c r="F123" s="8">
+      <c r="F123" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -3006,7 +3000,7 @@
       <c r="B124" s="3">
         <v>121</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D124" s="3">
@@ -3015,7 +3009,7 @@
       <c r="E124" s="5">
         <v>198</v>
       </c>
-      <c r="F124" s="8">
+      <c r="F124" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -3023,7 +3017,7 @@
       <c r="B125" s="3">
         <v>122</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D125" s="3">
@@ -3032,7 +3026,7 @@
       <c r="E125" s="5">
         <v>198</v>
       </c>
-      <c r="F125" s="8">
+      <c r="F125" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -3040,7 +3034,7 @@
       <c r="B126" s="3">
         <v>123</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D126" s="3">
@@ -3049,7 +3043,7 @@
       <c r="E126" s="5">
         <v>198</v>
       </c>
-      <c r="F126" s="8">
+      <c r="F126" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -3057,7 +3051,7 @@
       <c r="B127" s="3">
         <v>124</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D127" s="3">
@@ -3066,7 +3060,7 @@
       <c r="E127" s="5">
         <v>198</v>
       </c>
-      <c r="F127" s="8">
+      <c r="F127" s="4">
         <v>44035</v>
       </c>
     </row>
@@ -3074,7 +3068,7 @@
       <c r="B128" s="3">
         <v>125</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="3">
@@ -3083,12 +3077,13 @@
       <c r="E128" s="5">
         <v>198</v>
       </c>
-      <c r="F128" s="8">
+      <c r="F128" s="4">
         <v>44035</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -461,6 +461,39 @@
   </si>
   <si>
     <t>荒木 早織-&gt;628534008885</t>
+  </si>
+  <si>
+    <t>佐藤博史-&gt;628537199706</t>
+  </si>
+  <si>
+    <t>高儀 順子-&gt;628537199710</t>
+  </si>
+  <si>
+    <t>勝見 恵子-&gt;628537199721</t>
+  </si>
+  <si>
+    <t>濱田香織-&gt;628537199732</t>
+  </si>
+  <si>
+    <t>鈴木 彌生子-&gt;628537199743</t>
+  </si>
+  <si>
+    <t>鈴木 彌生子-&gt;628537199754</t>
+  </si>
+  <si>
+    <t>田中 正泰-&gt;628537199765</t>
+  </si>
+  <si>
+    <t>長沼 保広-&gt;628537199776</t>
+  </si>
+  <si>
+    <t>石橋 寛-&gt;628537199780</t>
+  </si>
+  <si>
+    <t>上田千秋-&gt;628537199791</t>
+  </si>
+  <si>
+    <t>中村 聖子-&gt;628537199802</t>
   </si>
 </sst>
 </file>
@@ -537,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +590,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,13 +900,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -888,7 +927,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>24750</v>
+        <v>26928</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -937,7 +976,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1250元</v>
+        <v>1360元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3079,6 +3118,193 @@
       </c>
       <c r="F128" s="4">
         <v>44035</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>126</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>198</v>
+      </c>
+      <c r="F129" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>127</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <v>198</v>
+      </c>
+      <c r="F130" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>128</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>198</v>
+      </c>
+      <c r="F131" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>129</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>198</v>
+      </c>
+      <c r="F132" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>130</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5">
+        <v>198</v>
+      </c>
+      <c r="F133" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B134" s="3">
+        <v>131</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <v>198</v>
+      </c>
+      <c r="F134" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>132</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5">
+        <v>198</v>
+      </c>
+      <c r="F135" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B136" s="3">
+        <v>133</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>198</v>
+      </c>
+      <c r="F136" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
+        <v>134</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <v>198</v>
+      </c>
+      <c r="F137" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B138" s="3">
+        <v>135</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>198</v>
+      </c>
+      <c r="F138" s="8">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B139" s="3">
+        <v>136</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5">
+        <v>198</v>
+      </c>
+      <c r="F139" s="8">
+        <v>44038</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -494,6 +494,18 @@
   </si>
   <si>
     <t>中村 聖子-&gt;628537199802</t>
+  </si>
+  <si>
+    <t>中村祐江-&gt;628542315962</t>
+  </si>
+  <si>
+    <t>中村祐江-&gt;628542315973</t>
+  </si>
+  <si>
+    <t>只野 肇-&gt;628542315984</t>
+  </si>
+  <si>
+    <t>有門 民雄-&gt;628542315995</t>
   </si>
 </sst>
 </file>
@@ -900,7 +912,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -927,7 +939,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>26928</v>
+        <v>27720</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -976,7 +988,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1360元</v>
+        <v>1400元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3305,6 +3317,74 @@
       </c>
       <c r="F139" s="8">
         <v>44038</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B140" s="3">
+        <v>137</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5">
+        <v>198</v>
+      </c>
+      <c r="F140" s="8">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B141" s="3">
+        <v>138</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5">
+        <v>198</v>
+      </c>
+      <c r="F141" s="8">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
+        <v>139</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
+        <v>198</v>
+      </c>
+      <c r="F142" s="8">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B143" s="3">
+        <v>140</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <v>198</v>
+      </c>
+      <c r="F143" s="8">
+        <v>44040</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>有門 民雄-&gt;628542315995</t>
+  </si>
+  <si>
+    <t>清水美保子-&gt;628545086923</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高木七重-&gt; 628545086934</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斎藤 健寿-&gt;628545086945</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,6 +620,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,7 +927,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -939,7 +954,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>27720</v>
+        <v>28314</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -988,7 +1003,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1400元</v>
+        <v>1430元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3385,6 +3400,57 @@
       </c>
       <c r="F143" s="8">
         <v>44040</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B144" s="3">
+        <v>141</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5">
+        <v>198</v>
+      </c>
+      <c r="F144" s="8">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B145" s="3">
+        <v>142</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
+        <v>198</v>
+      </c>
+      <c r="F145" s="8">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B146" s="3">
+        <v>143</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5">
+        <v>198</v>
+      </c>
+      <c r="F146" s="8">
+        <v>44042</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -518,6 +518,60 @@
   <si>
     <t>斎藤 健寿-&gt;628545086945</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野口義文-&gt;628548391074</t>
+  </si>
+  <si>
+    <t>中村美恵子-&gt;628548391085</t>
+  </si>
+  <si>
+    <t>中村美恵子-&gt;628548391096</t>
+  </si>
+  <si>
+    <t>宇高 敦子-&gt;628548391100</t>
+  </si>
+  <si>
+    <t>廣田 友紀-&gt;628548391111</t>
+  </si>
+  <si>
+    <t>佐藤 美代子-&gt;628548391122</t>
+  </si>
+  <si>
+    <t>藤本 かをる-&gt;628548391133</t>
+  </si>
+  <si>
+    <t>大山 マサミ-&gt;628548391144</t>
+  </si>
+  <si>
+    <t>森山 ミキ-&gt;628548391155</t>
+  </si>
+  <si>
+    <t>森山 ミキ-&gt;628548391166</t>
+  </si>
+  <si>
+    <t>森山 ミキ-&gt;628548391170</t>
+  </si>
+  <si>
+    <t>荒木 綾-&gt;628548391181</t>
+  </si>
+  <si>
+    <t>荒木 綾-&gt;628548391192</t>
+  </si>
+  <si>
+    <t>佐藤 啓子-&gt;628548391203</t>
+  </si>
+  <si>
+    <t>岡本 真由美-&gt;628548391214</t>
+  </si>
+  <si>
+    <t>荒木 早織-&gt;628548391225</t>
+  </si>
+  <si>
+    <t>片井將嗣-&gt;628548391236</t>
+  </si>
+  <si>
+    <t>伊東亜由美-&gt;628548391240</t>
   </si>
 </sst>
 </file>
@@ -927,13 +981,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -954,7 +1008,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>28314</v>
+        <v>31878</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1003,7 +1057,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1430元</v>
+        <v>1610元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3451,6 +3505,312 @@
       </c>
       <c r="F146" s="8">
         <v>44042</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B147" s="3">
+        <v>144</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5">
+        <v>198</v>
+      </c>
+      <c r="F147" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B148" s="3">
+        <v>145</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
+        <v>198</v>
+      </c>
+      <c r="F148" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B149" s="3">
+        <v>146</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="3">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5">
+        <v>198</v>
+      </c>
+      <c r="F149" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B150" s="3">
+        <v>147</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5">
+        <v>198</v>
+      </c>
+      <c r="F150" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B151" s="3">
+        <v>148</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5">
+        <v>198</v>
+      </c>
+      <c r="F151" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B152" s="3">
+        <v>149</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5">
+        <v>198</v>
+      </c>
+      <c r="F152" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
+        <v>150</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5">
+        <v>198</v>
+      </c>
+      <c r="F153" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B154" s="3">
+        <v>151</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5">
+        <v>198</v>
+      </c>
+      <c r="F154" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B155" s="3">
+        <v>152</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5">
+        <v>198</v>
+      </c>
+      <c r="F155" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B156" s="3">
+        <v>153</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5">
+        <v>198</v>
+      </c>
+      <c r="F156" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B157" s="3">
+        <v>154</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5">
+        <v>198</v>
+      </c>
+      <c r="F157" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B158" s="3">
+        <v>155</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
+        <v>198</v>
+      </c>
+      <c r="F158" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B159" s="3">
+        <v>156</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>198</v>
+      </c>
+      <c r="F159" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B160" s="3">
+        <v>157</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
+        <v>198</v>
+      </c>
+      <c r="F160" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B161" s="3">
+        <v>158</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+      <c r="E161" s="5">
+        <v>198</v>
+      </c>
+      <c r="F161" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B162" s="3">
+        <v>159</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>198</v>
+      </c>
+      <c r="F162" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B163" s="3">
+        <v>160</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5">
+        <v>198</v>
+      </c>
+      <c r="F163" s="8">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B164" s="3">
+        <v>161</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
+        <v>198</v>
+      </c>
+      <c r="F164" s="8">
+        <v>44046</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -572,6 +572,22 @@
   </si>
   <si>
     <t>伊東亜由美-&gt;628548391240</t>
+  </si>
+  <si>
+    <t>小松隆夫-&gt;628553424446</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山崎尋子-&gt;628553424450</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若山 大智-&gt;628553424461</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田野健次-&gt;628553424472</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -981,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1024,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>31878</v>
+        <v>32670</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1057,7 +1073,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1610元</v>
+        <v>1650元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3811,6 +3827,74 @@
       </c>
       <c r="F164" s="8">
         <v>44046</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B165" s="3">
+        <v>162</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5">
+        <v>198</v>
+      </c>
+      <c r="F165" s="8">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B166" s="3">
+        <v>163</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5">
+        <v>198</v>
+      </c>
+      <c r="F166" s="8">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B167" s="3">
+        <v>164</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5">
+        <v>198</v>
+      </c>
+      <c r="F167" s="8">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B168" s="3">
+        <v>165</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
+        <v>198</v>
+      </c>
+      <c r="F168" s="8">
+        <v>44048</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -587,6 +587,40 @@
   </si>
   <si>
     <t>田野健次-&gt;628553424472</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺田昌玄-&gt;628556654165</t>
+  </si>
+  <si>
+    <t>小野 暢枝-&gt;628556654180</t>
+  </si>
+  <si>
+    <t>小野 暢枝-&gt;628556654191</t>
+  </si>
+  <si>
+    <t>倉知 幸代-&gt;628556654202</t>
+  </si>
+  <si>
+    <t>川島 昭子-&gt;628556654213</t>
+  </si>
+  <si>
+    <t>竹花 小百合-&gt;628556654224</t>
+  </si>
+  <si>
+    <t>高城 経世-&gt;628556654235</t>
+  </si>
+  <si>
+    <t>岩田 壮史-&gt;628556654246</t>
+  </si>
+  <si>
+    <t>小笠千晶-&gt;628556654250</t>
+  </si>
+  <si>
+    <t>朝日 康博-&gt;628556654261</t>
+  </si>
+  <si>
+    <t>瀧直美-&gt;628556654176</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -997,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1024,7 +1058,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>32670</v>
+        <v>34848</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1073,7 +1107,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1650元</v>
+        <v>1740元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -3895,6 +3929,193 @@
       </c>
       <c r="F168" s="8">
         <v>44048</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B169" s="3">
+        <v>166</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5">
+        <v>198</v>
+      </c>
+      <c r="F169" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B170" s="3">
+        <v>167</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
+        <v>198</v>
+      </c>
+      <c r="F170" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B171" s="3">
+        <v>168</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5">
+        <v>198</v>
+      </c>
+      <c r="F171" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B172" s="3">
+        <v>169</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
+        <v>198</v>
+      </c>
+      <c r="F172" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B173" s="3">
+        <v>170</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1</v>
+      </c>
+      <c r="E173" s="5">
+        <v>198</v>
+      </c>
+      <c r="F173" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B174" s="3">
+        <v>171</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D174" s="3">
+        <v>1</v>
+      </c>
+      <c r="E174" s="5">
+        <v>198</v>
+      </c>
+      <c r="F174" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
+        <v>172</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="3">
+        <v>1</v>
+      </c>
+      <c r="E175" s="5">
+        <v>198</v>
+      </c>
+      <c r="F175" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B176" s="3">
+        <v>173</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5">
+        <v>198</v>
+      </c>
+      <c r="F176" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B177" s="3">
+        <v>174</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+      <c r="E177" s="5">
+        <v>198</v>
+      </c>
+      <c r="F177" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B178" s="3">
+        <v>175</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5">
+        <v>198</v>
+      </c>
+      <c r="F178" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B179" s="3">
+        <v>176</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5">
+        <v>198</v>
+      </c>
+      <c r="F179" s="8">
+        <v>44050</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -622,6 +622,42 @@
   <si>
     <t>瀧直美-&gt;628556654176</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森嶋 厚子-&gt;628559790773</t>
+  </si>
+  <si>
+    <t>宮崎 圭市-&gt;628559790784</t>
+  </si>
+  <si>
+    <t>加藤 早百合-&gt;628559790670</t>
+  </si>
+  <si>
+    <t>加藤 早百合-&gt;628559790681</t>
+  </si>
+  <si>
+    <t>石田 早苗-&gt;628559790692</t>
+  </si>
+  <si>
+    <t>篠原 真名実-&gt;628559790703</t>
+  </si>
+  <si>
+    <t>千葉倫子-&gt;628559790714</t>
+  </si>
+  <si>
+    <t>一色賢司-&gt;628559790725</t>
+  </si>
+  <si>
+    <t>幸野 秀司-&gt;628559790736</t>
+  </si>
+  <si>
+    <t>吉武 芳則-&gt;628559790740</t>
+  </si>
+  <si>
+    <t>柴田光男-&gt;628559790751</t>
+  </si>
+  <si>
+    <t>川添史子-&gt;628559790762</t>
   </si>
 </sst>
 </file>
@@ -1031,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1094,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>34848</v>
+        <v>37224</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4118,6 +4154,210 @@
         <v>44050</v>
       </c>
     </row>
+    <row r="180" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B180" s="3">
+        <v>177</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5">
+        <v>198</v>
+      </c>
+      <c r="F180" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B181" s="3">
+        <v>178</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+      <c r="E181" s="5">
+        <v>198</v>
+      </c>
+      <c r="F181" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B182" s="3">
+        <v>179</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1</v>
+      </c>
+      <c r="E182" s="5">
+        <v>198</v>
+      </c>
+      <c r="F182" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B183" s="3">
+        <v>180</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1</v>
+      </c>
+      <c r="E183" s="5">
+        <v>198</v>
+      </c>
+      <c r="F183" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B184" s="3">
+        <v>181</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
+      <c r="E184" s="5">
+        <v>198</v>
+      </c>
+      <c r="F184" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B185" s="3">
+        <v>182</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="E185" s="5">
+        <v>198</v>
+      </c>
+      <c r="F185" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B186" s="3">
+        <v>183</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5">
+        <v>198</v>
+      </c>
+      <c r="F186" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B187" s="3">
+        <v>184</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+      <c r="E187" s="5">
+        <v>198</v>
+      </c>
+      <c r="F187" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B188" s="3">
+        <v>185</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5">
+        <v>198</v>
+      </c>
+      <c r="F188" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B189" s="3">
+        <v>186</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="E189" s="5">
+        <v>198</v>
+      </c>
+      <c r="F189" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B190" s="3">
+        <v>187</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5">
+        <v>198</v>
+      </c>
+      <c r="F190" s="8">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B191" s="3">
+        <v>188</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="E191" s="5">
+        <v>198</v>
+      </c>
+      <c r="F191" s="8">
+        <v>44053</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -658,6 +658,30 @@
   </si>
   <si>
     <t>川添史子-&gt;628559790762</t>
+  </si>
+  <si>
+    <t>山野 純平-&gt;628561674344</t>
+  </si>
+  <si>
+    <t>細川 幸子-&gt;628561674355</t>
+  </si>
+  <si>
+    <t>細川 幸子-&gt;628561674366</t>
+  </si>
+  <si>
+    <t>細川 幸子-&gt;628561674370</t>
+  </si>
+  <si>
+    <t>細川 幸子-&gt;628561674381</t>
+  </si>
+  <si>
+    <t>平尾 友江-&gt;628561674392</t>
+  </si>
+  <si>
+    <t>村井 貴幸-&gt;628561674403</t>
+  </si>
+  <si>
+    <t>西 日出彦-&gt;628561674414</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1118,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>37224</v>
+        <v>38808</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4358,6 +4382,142 @@
         <v>44053</v>
       </c>
     </row>
+    <row r="192" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B192" s="3">
+        <v>189</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1</v>
+      </c>
+      <c r="E192" s="5">
+        <v>198</v>
+      </c>
+      <c r="F192" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B193" s="3">
+        <v>190</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+      <c r="E193" s="5">
+        <v>198</v>
+      </c>
+      <c r="F193" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B194" s="3">
+        <v>191</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
+      <c r="E194" s="5">
+        <v>198</v>
+      </c>
+      <c r="F194" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B195" s="3">
+        <v>192</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+      <c r="E195" s="5">
+        <v>198</v>
+      </c>
+      <c r="F195" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B196" s="3">
+        <v>193</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="E196" s="5">
+        <v>198</v>
+      </c>
+      <c r="F196" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B197" s="3">
+        <v>194</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="E197" s="5">
+        <v>198</v>
+      </c>
+      <c r="F197" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B198" s="3">
+        <v>195</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1</v>
+      </c>
+      <c r="E198" s="5">
+        <v>198</v>
+      </c>
+      <c r="F198" s="8">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B199" s="3">
+        <v>196</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1</v>
+      </c>
+      <c r="E199" s="5">
+        <v>198</v>
+      </c>
+      <c r="F199" s="8">
+        <v>44054</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -682,6 +682,51 @@
   </si>
   <si>
     <t>西 日出彦-&gt;628561674414</t>
+  </si>
+  <si>
+    <t>菊地 美代子-&gt;628564900725</t>
+  </si>
+  <si>
+    <t>大塚英二-&gt;628564900736</t>
+  </si>
+  <si>
+    <t>大塚英二-&gt;628564900740</t>
+  </si>
+  <si>
+    <t>中村利子-&gt;628564900751</t>
+  </si>
+  <si>
+    <t>中村利子-&gt;628564900762</t>
+  </si>
+  <si>
+    <t>中村利子-&gt;628564900773</t>
+  </si>
+  <si>
+    <t>岡崎 まり子-&gt;628564900784</t>
+  </si>
+  <si>
+    <t>岡崎 まり子-&gt;628564900795</t>
+  </si>
+  <si>
+    <t>岡崎 まり子-&gt;628564900806</t>
+  </si>
+  <si>
+    <t>藤澤 純次-&gt;628564900810</t>
+  </si>
+  <si>
+    <t>長谷川 美智子-&gt;628564900821</t>
+  </si>
+  <si>
+    <t>山田 久美子-&gt;628564900832</t>
+  </si>
+  <si>
+    <t>山田 久美子-&gt;628564900843</t>
+  </si>
+  <si>
+    <t>山田 久美子-&gt;628564900854</t>
+  </si>
+  <si>
+    <t>上田 千秋-&gt;628564900865</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1136,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C190" sqref="C190"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1163,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>38808</v>
+        <v>41778</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1166,8 +1211,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D4:D177)*LEFT(I2,2) &amp; "元"</f>
-        <v>1740元</v>
+        <f>COUNT(D:D)*LEFT(I2,2) &amp; "元"</f>
+        <v>2110元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -4516,6 +4561,261 @@
       </c>
       <c r="F199" s="8">
         <v>44054</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B200" s="3">
+        <v>197</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>198</v>
+      </c>
+      <c r="F200" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B201" s="3">
+        <v>198</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1</v>
+      </c>
+      <c r="E201" s="5">
+        <v>198</v>
+      </c>
+      <c r="F201" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B202" s="3">
+        <v>199</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1</v>
+      </c>
+      <c r="E202" s="5">
+        <v>198</v>
+      </c>
+      <c r="F202" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B203" s="3">
+        <v>200</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1</v>
+      </c>
+      <c r="E203" s="5">
+        <v>198</v>
+      </c>
+      <c r="F203" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B204" s="3">
+        <v>201</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="E204" s="5">
+        <v>198</v>
+      </c>
+      <c r="F204" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B205" s="3">
+        <v>202</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1</v>
+      </c>
+      <c r="E205" s="5">
+        <v>198</v>
+      </c>
+      <c r="F205" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B206" s="3">
+        <v>203</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1</v>
+      </c>
+      <c r="E206" s="5">
+        <v>198</v>
+      </c>
+      <c r="F206" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B207" s="3">
+        <v>204</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D207" s="3">
+        <v>1</v>
+      </c>
+      <c r="E207" s="5">
+        <v>198</v>
+      </c>
+      <c r="F207" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B208" s="3">
+        <v>205</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1</v>
+      </c>
+      <c r="E208" s="5">
+        <v>198</v>
+      </c>
+      <c r="F208" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B209" s="3">
+        <v>206</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1</v>
+      </c>
+      <c r="E209" s="5">
+        <v>198</v>
+      </c>
+      <c r="F209" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B210" s="3">
+        <v>207</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="5">
+        <v>198</v>
+      </c>
+      <c r="F210" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B211" s="3">
+        <v>208</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="5">
+        <v>198</v>
+      </c>
+      <c r="F211" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B212" s="3">
+        <v>209</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D212" s="3">
+        <v>1</v>
+      </c>
+      <c r="E212" s="5">
+        <v>198</v>
+      </c>
+      <c r="F212" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B213" s="3">
+        <v>210</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D213" s="3">
+        <v>1</v>
+      </c>
+      <c r="E213" s="5">
+        <v>198</v>
+      </c>
+      <c r="F213" s="8">
+        <v>44057</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B214" s="3">
+        <v>211</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D214" s="3">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5">
+        <v>198</v>
+      </c>
+      <c r="F214" s="8">
+        <v>44057</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -727,6 +727,52 @@
   </si>
   <si>
     <t>上田 千秋-&gt;628564900865</t>
+  </si>
+  <si>
+    <t>天野 香織-&gt;628566634953</t>
+  </si>
+  <si>
+    <t>望月 忍-&gt;628566634964</t>
+  </si>
+  <si>
+    <t>望月 忍-&gt;628566634975</t>
+  </si>
+  <si>
+    <t>上窪 康規-&gt;628566634986</t>
+  </si>
+  <si>
+    <t>町田 祐介-&gt;628566634990</t>
+  </si>
+  <si>
+    <t>神田 智子-&gt;628566635001</t>
+  </si>
+  <si>
+    <t>神田 智子-&gt;628566635012</t>
+  </si>
+  <si>
+    <t>宝田 恵-&gt;628566635023</t>
+  </si>
+  <si>
+    <t>高田陽-&gt;628566635034</t>
+  </si>
+  <si>
+    <t>大場 美穂-&gt;628566635045</t>
+  </si>
+  <si>
+    <t>丸山 純子-&gt;628566635056</t>
+  </si>
+  <si>
+    <t>鈴木 治彦-&gt;628566635060</t>
+  </si>
+  <si>
+    <t>君島 靖子-&gt;628566635071</t>
+  </si>
+  <si>
+    <t>安田 あゆみ-&gt;628566635082</t>
+  </si>
+  <si>
+    <t>インク カートリッジ BC-345XL</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -803,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +878,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,13 +1188,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1215,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>41778</v>
+        <v>47170</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1212,7 +1264,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNT(D:D)*LEFT(I2,2) &amp; "元"</f>
-        <v>2110元</v>
+        <v>2260元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -4816,6 +4868,261 @@
       </c>
       <c r="F214" s="8">
         <v>44057</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B215" s="3">
+        <v>212</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1</v>
+      </c>
+      <c r="E215" s="5">
+        <v>198</v>
+      </c>
+      <c r="F215" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B216" s="3">
+        <v>213</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="3">
+        <v>1</v>
+      </c>
+      <c r="E216" s="5">
+        <v>198</v>
+      </c>
+      <c r="F216" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B217" s="3">
+        <v>214</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="3">
+        <v>1</v>
+      </c>
+      <c r="E217" s="5">
+        <v>198</v>
+      </c>
+      <c r="F217" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B218" s="3">
+        <v>215</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E218" s="5">
+        <v>198</v>
+      </c>
+      <c r="F218" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B219" s="3">
+        <v>216</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1</v>
+      </c>
+      <c r="E219" s="5">
+        <v>198</v>
+      </c>
+      <c r="F219" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B220" s="3">
+        <v>217</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D220" s="3">
+        <v>1</v>
+      </c>
+      <c r="E220" s="5">
+        <v>198</v>
+      </c>
+      <c r="F220" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B221" s="3">
+        <v>218</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5">
+        <v>198</v>
+      </c>
+      <c r="F221" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B222" s="3">
+        <v>219</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1</v>
+      </c>
+      <c r="E222" s="5">
+        <v>198</v>
+      </c>
+      <c r="F222" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B223" s="3">
+        <v>220</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1</v>
+      </c>
+      <c r="E223" s="5">
+        <v>198</v>
+      </c>
+      <c r="F223" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B224" s="3">
+        <v>221</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1</v>
+      </c>
+      <c r="E224" s="5">
+        <v>198</v>
+      </c>
+      <c r="F224" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B225" s="3">
+        <v>222</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" s="3">
+        <v>1</v>
+      </c>
+      <c r="E225" s="5">
+        <v>198</v>
+      </c>
+      <c r="F225" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B226" s="3">
+        <v>223</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1</v>
+      </c>
+      <c r="E226" s="5">
+        <v>198</v>
+      </c>
+      <c r="F226" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B227" s="3">
+        <v>224</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1</v>
+      </c>
+      <c r="E227" s="5">
+        <v>198</v>
+      </c>
+      <c r="F227" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B228" s="3">
+        <v>225</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1</v>
+      </c>
+      <c r="E228" s="5">
+        <v>198</v>
+      </c>
+      <c r="F228" s="8">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B229" s="10">
+        <v>226</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D229" s="10">
+        <v>1</v>
+      </c>
+      <c r="E229" s="11">
+        <v>2620</v>
+      </c>
+      <c r="F229" s="8">
+        <v>44059</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -1191,10 +1191,10 @@
   <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C225" sqref="C225"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1263,8 +1263,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
-        <f>COUNT(D:D)*LEFT(I2,2) &amp; "元"</f>
-        <v>2260元</v>
+        <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
+        <v>2250元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>234</v>
       </c>
       <c r="D229" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" s="11">
         <v>2620</v>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -773,6 +773,37 @@
   <si>
     <t>インク カートリッジ BC-345XL</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土居田 耕司-&gt;628570237971</t>
+  </si>
+  <si>
+    <t>駒津智永子-&gt;628570237982</t>
+  </si>
+  <si>
+    <t>堀田秀一-&gt;628570237993</t>
+  </si>
+  <si>
+    <t>田中 秀典-&gt;628570238004</t>
+  </si>
+  <si>
+    <t>一色 ヨシコ-&gt;628570238015</t>
+  </si>
+  <si>
+    <t>浜本 巧-&gt;628570238026</t>
+  </si>
+  <si>
+    <t>大島 京子-&gt;628570238030</t>
+  </si>
+  <si>
+    <t>大島 京子-&gt;628570238041</t>
   </si>
 </sst>
 </file>
@@ -1188,13 +1219,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1246,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>47170</v>
+        <v>48754</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1264,7 +1295,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2250元</v>
+        <v>2330元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5115,14 +5146,150 @@
       <c r="C229" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D229" s="10">
-        <v>0</v>
+      <c r="D229" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="E229" s="11">
         <v>2620</v>
       </c>
       <c r="F229" s="8">
         <v>44059</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B230" s="10">
+        <v>227</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1</v>
+      </c>
+      <c r="E230" s="5">
+        <v>198</v>
+      </c>
+      <c r="F230" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B231" s="10">
+        <v>228</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1</v>
+      </c>
+      <c r="E231" s="5">
+        <v>198</v>
+      </c>
+      <c r="F231" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B232" s="10">
+        <v>229</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D232" s="3">
+        <v>1</v>
+      </c>
+      <c r="E232" s="5">
+        <v>198</v>
+      </c>
+      <c r="F232" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B233" s="10">
+        <v>230</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="3">
+        <v>1</v>
+      </c>
+      <c r="E233" s="5">
+        <v>198</v>
+      </c>
+      <c r="F233" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B234" s="10">
+        <v>231</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D234" s="3">
+        <v>1</v>
+      </c>
+      <c r="E234" s="5">
+        <v>198</v>
+      </c>
+      <c r="F234" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B235" s="10">
+        <v>232</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D235" s="3">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5">
+        <v>198</v>
+      </c>
+      <c r="F235" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B236" s="10">
+        <v>233</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" s="3">
+        <v>1</v>
+      </c>
+      <c r="E236" s="5">
+        <v>198</v>
+      </c>
+      <c r="F236" s="8">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B237" s="10">
+        <v>234</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D237" s="3">
+        <v>1</v>
+      </c>
+      <c r="E237" s="5">
+        <v>198</v>
+      </c>
+      <c r="F237" s="8">
+        <v>44061</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -804,6 +804,24 @@
   </si>
   <si>
     <t>大島 京子-&gt;628570238041</t>
+  </si>
+  <si>
+    <t>小倉みち子-&gt;628573538806</t>
+  </si>
+  <si>
+    <t>小倉みち子-&gt;628573538810</t>
+  </si>
+  <si>
+    <t>小田浩道-&gt;628573538821</t>
+  </si>
+  <si>
+    <t>小田浩道-&gt;628573538832</t>
+  </si>
+  <si>
+    <t>山本 桂子-&gt;628573538843</t>
+  </si>
+  <si>
+    <t>山本 桂子-&gt;628573538854</t>
   </si>
 </sst>
 </file>
@@ -1219,13 +1237,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C220" sqref="C220"/>
+      <selection pane="bottomRight" activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1264,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>48754</v>
+        <v>49942</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1295,7 +1313,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2330元</v>
+        <v>2390元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5290,6 +5308,108 @@
       </c>
       <c r="F237" s="8">
         <v>44061</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B238" s="10">
+        <v>235</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" s="3">
+        <v>1</v>
+      </c>
+      <c r="E238" s="5">
+        <v>198</v>
+      </c>
+      <c r="F238" s="8">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B239" s="10">
+        <v>236</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D239" s="3">
+        <v>1</v>
+      </c>
+      <c r="E239" s="5">
+        <v>198</v>
+      </c>
+      <c r="F239" s="8">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B240" s="10">
+        <v>237</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1</v>
+      </c>
+      <c r="E240" s="5">
+        <v>198</v>
+      </c>
+      <c r="F240" s="8">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B241" s="10">
+        <v>238</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1</v>
+      </c>
+      <c r="E241" s="5">
+        <v>198</v>
+      </c>
+      <c r="F241" s="8">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B242" s="10">
+        <v>239</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D242" s="3">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5">
+        <v>198</v>
+      </c>
+      <c r="F242" s="8">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B243" s="10">
+        <v>240</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D243" s="3">
+        <v>1</v>
+      </c>
+      <c r="E243" s="5">
+        <v>198</v>
+      </c>
+      <c r="F243" s="8">
+        <v>44064</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -822,6 +822,24 @@
   </si>
   <si>
     <t>山本 桂子-&gt;628573538854</t>
+  </si>
+  <si>
+    <t>阿部陽来-&gt;628577594256</t>
+  </si>
+  <si>
+    <t>高橋 恵美-&gt;628577594260</t>
+  </si>
+  <si>
+    <t>高橋 恵美-&gt;628577594271</t>
+  </si>
+  <si>
+    <t>小木曽 政子-&gt;628577594282</t>
+  </si>
+  <si>
+    <t>小木曽 政子-&gt;628577594293</t>
+  </si>
+  <si>
+    <t>草薙悠-&gt;628577594304</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1255,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C234" sqref="C234"/>
+      <selection pane="bottomRight" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1282,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>49942</v>
+        <v>51130</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1313,7 +1331,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2390元</v>
+        <v>2450元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5410,6 +5428,108 @@
       </c>
       <c r="F243" s="8">
         <v>44064</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B244" s="10">
+        <v>241</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D244" s="3">
+        <v>1</v>
+      </c>
+      <c r="E244" s="5">
+        <v>198</v>
+      </c>
+      <c r="F244" s="8">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B245" s="10">
+        <v>242</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245" s="5">
+        <v>198</v>
+      </c>
+      <c r="F245" s="8">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B246" s="10">
+        <v>243</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D246" s="3">
+        <v>1</v>
+      </c>
+      <c r="E246" s="5">
+        <v>198</v>
+      </c>
+      <c r="F246" s="8">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B247" s="10">
+        <v>244</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D247" s="3">
+        <v>1</v>
+      </c>
+      <c r="E247" s="5">
+        <v>198</v>
+      </c>
+      <c r="F247" s="8">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B248" s="10">
+        <v>245</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D248" s="3">
+        <v>1</v>
+      </c>
+      <c r="E248" s="5">
+        <v>198</v>
+      </c>
+      <c r="F248" s="8">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B249" s="10">
+        <v>246</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D249" s="3">
+        <v>1</v>
+      </c>
+      <c r="E249" s="5">
+        <v>198</v>
+      </c>
+      <c r="F249" s="8">
+        <v>44067</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -840,6 +840,27 @@
   </si>
   <si>
     <t>草薙悠-&gt;628577594304</t>
+  </si>
+  <si>
+    <t>作花洋兒-&gt;628581538771</t>
+  </si>
+  <si>
+    <t>吉川登司夫-&gt;628581538782</t>
+  </si>
+  <si>
+    <t>江藤史裕-&gt;628581538793</t>
+  </si>
+  <si>
+    <t>畠山祥子-&gt;628581538804</t>
+  </si>
+  <si>
+    <t>日妻寿男-&gt;628581538815</t>
+  </si>
+  <si>
+    <t>内田吉信-&gt;628581538826</t>
+  </si>
+  <si>
+    <t>清佳代子-&gt;628581538830</t>
   </si>
 </sst>
 </file>
@@ -1255,13 +1276,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C237" sqref="C237"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1303,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>51130</v>
+        <v>52516</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1331,7 +1352,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2450元</v>
+        <v>2520元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5530,6 +5551,125 @@
       </c>
       <c r="F249" s="8">
         <v>44067</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B250" s="10">
+        <v>247</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1</v>
+      </c>
+      <c r="E250" s="5">
+        <v>198</v>
+      </c>
+      <c r="F250" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B251" s="10">
+        <v>248</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1</v>
+      </c>
+      <c r="E251" s="5">
+        <v>198</v>
+      </c>
+      <c r="F251" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B252" s="10">
+        <v>249</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1</v>
+      </c>
+      <c r="E252" s="5">
+        <v>198</v>
+      </c>
+      <c r="F252" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B253" s="10">
+        <v>250</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D253" s="3">
+        <v>1</v>
+      </c>
+      <c r="E253" s="5">
+        <v>198</v>
+      </c>
+      <c r="F253" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B254" s="10">
+        <v>251</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1</v>
+      </c>
+      <c r="E254" s="5">
+        <v>198</v>
+      </c>
+      <c r="F254" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B255" s="10">
+        <v>252</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+      <c r="E255" s="5">
+        <v>198</v>
+      </c>
+      <c r="F255" s="8">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B256" s="10">
+        <v>253</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
+      <c r="E256" s="5">
+        <v>198</v>
+      </c>
+      <c r="F256" s="8">
+        <v>44070</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -861,6 +861,21 @@
   </si>
   <si>
     <t>清佳代子-&gt;628581538830</t>
+  </si>
+  <si>
+    <t>田中靖宏-&gt;628582882620</t>
+  </si>
+  <si>
+    <t>升崎さやか-&gt;628582882631</t>
+  </si>
+  <si>
+    <t>升崎さやか-&gt;628582882642</t>
+  </si>
+  <si>
+    <t>文正烈-&gt;628582882653</t>
+  </si>
+  <si>
+    <t>文正烈-&gt;628582882664</t>
   </si>
 </sst>
 </file>
@@ -1276,13 +1291,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
+      <selection pane="bottomRight" activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1318,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>52516</v>
+        <v>53506</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1352,7 +1367,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2520元</v>
+        <v>2570元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5670,6 +5685,91 @@
       </c>
       <c r="F256" s="8">
         <v>44070</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B257" s="10">
+        <v>254</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D257" s="3">
+        <v>1</v>
+      </c>
+      <c r="E257" s="5">
+        <v>198</v>
+      </c>
+      <c r="F257" s="8">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B258" s="10">
+        <v>255</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D258" s="3">
+        <v>1</v>
+      </c>
+      <c r="E258" s="5">
+        <v>198</v>
+      </c>
+      <c r="F258" s="8">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B259" s="10">
+        <v>256</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259" s="5">
+        <v>198</v>
+      </c>
+      <c r="F259" s="8">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B260" s="10">
+        <v>257</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1</v>
+      </c>
+      <c r="E260" s="5">
+        <v>198</v>
+      </c>
+      <c r="F260" s="8">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B261" s="10">
+        <v>258</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="3">
+        <v>1</v>
+      </c>
+      <c r="E261" s="5">
+        <v>198</v>
+      </c>
+      <c r="F261" s="8">
+        <v>44072</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -876,6 +876,24 @@
   </si>
   <si>
     <t>文正烈-&gt;628582882664</t>
+  </si>
+  <si>
+    <t>田仲晴夫-&gt;628586120260</t>
+  </si>
+  <si>
+    <t>吉川 登司夫-&gt;628586120271</t>
+  </si>
+  <si>
+    <t>小鷺 理恵子-&gt;628586120282</t>
+  </si>
+  <si>
+    <t>小鷺 理恵子-&gt;628586120293</t>
+  </si>
+  <si>
+    <t>加藤ともみ-&gt;628586120304</t>
+  </si>
+  <si>
+    <t>石田淳二-&gt;628586120315</t>
   </si>
 </sst>
 </file>
@@ -1291,13 +1309,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I261"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H250" sqref="H250"/>
+      <selection pane="bottomRight" activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1336,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>53506</v>
+        <v>54694</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1367,7 +1385,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2570元</v>
+        <v>2630元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5770,6 +5788,108 @@
       </c>
       <c r="F261" s="8">
         <v>44072</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B262" s="10">
+        <v>259</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" s="3">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5">
+        <v>198</v>
+      </c>
+      <c r="F262" s="8">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B263" s="10">
+        <v>260</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1</v>
+      </c>
+      <c r="E263" s="5">
+        <v>198</v>
+      </c>
+      <c r="F263" s="8">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B264" s="10">
+        <v>261</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+      <c r="E264" s="5">
+        <v>198</v>
+      </c>
+      <c r="F264" s="8">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B265" s="10">
+        <v>262</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1</v>
+      </c>
+      <c r="E265" s="5">
+        <v>198</v>
+      </c>
+      <c r="F265" s="8">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B266" s="10">
+        <v>263</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D266" s="3">
+        <v>1</v>
+      </c>
+      <c r="E266" s="5">
+        <v>198</v>
+      </c>
+      <c r="F266" s="8">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B267" s="10">
+        <v>264</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D267" s="3">
+        <v>1</v>
+      </c>
+      <c r="E267" s="5">
+        <v>198</v>
+      </c>
+      <c r="F267" s="8">
+        <v>44074</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -894,6 +894,14 @@
   </si>
   <si>
     <t>石田淳二-&gt;628586120315</t>
+  </si>
+  <si>
+    <t>迫田 健之-&gt;628590213226</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山内 馨介-&gt;628590213230</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1309,13 +1317,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C268" sqref="C268"/>
+      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1344,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>54694</v>
+        <v>55090</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1385,7 +1393,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2630元</v>
+        <v>2650元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5890,6 +5898,40 @@
       </c>
       <c r="F267" s="8">
         <v>44074</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B268" s="10">
+        <v>265</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1</v>
+      </c>
+      <c r="E268" s="5">
+        <v>198</v>
+      </c>
+      <c r="F268" s="8">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B269" s="10">
+        <v>266</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1</v>
+      </c>
+      <c r="E269" s="5">
+        <v>198</v>
+      </c>
+      <c r="F269" s="8">
+        <v>44078</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -901,6 +901,14 @@
   </si>
   <si>
     <t>山内 馨介-&gt;628590213230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小島豊-&gt;628592055884</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大塚健司-&gt;628592055895</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1317,13 +1325,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
+      <selection pane="bottomRight" activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1352,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>55090</v>
+        <v>55486</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1393,7 +1401,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2650元</v>
+        <v>2670元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5932,6 +5940,40 @@
       </c>
       <c r="F269" s="8">
         <v>44078</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B270" s="10">
+        <v>267</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+      <c r="E270" s="5">
+        <v>198</v>
+      </c>
+      <c r="F270" s="8">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B271" s="10">
+        <v>268</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D271" s="3">
+        <v>1</v>
+      </c>
+      <c r="E271" s="5">
+        <v>198</v>
+      </c>
+      <c r="F271" s="8">
+        <v>44079</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -909,6 +909,18 @@
   </si>
   <si>
     <t>大塚健司-&gt;628592055895</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中田雄一-&gt;628593992972</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩澤 喜信-&gt;628593992983</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田伸太朗-&gt;628593992994</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1325,13 +1337,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C271" sqref="C271"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1364,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>55486</v>
+        <v>56080</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1401,7 +1413,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2670元</v>
+        <v>2700元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -5974,6 +5986,57 @@
       </c>
       <c r="F271" s="8">
         <v>44079</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B272" s="10">
+        <v>269</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D272" s="3">
+        <v>1</v>
+      </c>
+      <c r="E272" s="5">
+        <v>198</v>
+      </c>
+      <c r="F272" s="8">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B273" s="10">
+        <v>270</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273" s="3">
+        <v>1</v>
+      </c>
+      <c r="E273" s="5">
+        <v>198</v>
+      </c>
+      <c r="F273" s="8">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B274" s="10">
+        <v>271</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D274" s="3">
+        <v>1</v>
+      </c>
+      <c r="E274" s="5">
+        <v>198</v>
+      </c>
+      <c r="F274" s="8">
+        <v>44081</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -921,6 +921,14 @@
   </si>
   <si>
     <t>武田伸太朗-&gt;628593992994</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上昌宏-&gt;628597456756</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永井 利幸-&gt; 628597456760</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1337,13 +1345,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="H271" sqref="H271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1372,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>56080</v>
+        <v>56476</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1413,7 +1421,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2700元</v>
+        <v>2720元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -6037,6 +6045,40 @@
       </c>
       <c r="F274" s="8">
         <v>44081</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B275" s="10">
+        <v>272</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D275" s="3">
+        <v>1</v>
+      </c>
+      <c r="E275" s="5">
+        <v>198</v>
+      </c>
+      <c r="F275" s="8">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B276" s="10">
+        <v>273</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276" s="3">
+        <v>1</v>
+      </c>
+      <c r="E276" s="5">
+        <v>198</v>
+      </c>
+      <c r="F276" s="8">
+        <v>44083</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -929,6 +929,10 @@
   </si>
   <si>
     <t>永井 利幸-&gt; 628597456760</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屈岡文-&gt;628601453196</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1345,13 +1349,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H271" sqref="H271"/>
+      <selection pane="bottomRight" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1376,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>56476</v>
+        <v>56674</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1421,7 +1425,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2720元</v>
+        <v>2730元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -6079,6 +6083,23 @@
       </c>
       <c r="F276" s="8">
         <v>44083</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B277" s="10">
+        <v>274</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" s="3">
+        <v>1</v>
+      </c>
+      <c r="E277" s="5">
+        <v>198</v>
+      </c>
+      <c r="F277" s="8">
+        <v>44086</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -933,6 +933,10 @@
   </si>
   <si>
     <t>屈岡文-&gt;628601453196</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茂木儀清-&gt;628604593665</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1349,13 +1353,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B263" sqref="B263"/>
+      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1380,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>56674</v>
+        <v>56872</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1425,7 +1429,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2730元</v>
+        <v>2740元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -6100,6 +6104,23 @@
       </c>
       <c r="F277" s="8">
         <v>44086</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B278" s="10">
+        <v>275</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278" s="3">
+        <v>1</v>
+      </c>
+      <c r="E278" s="5">
+        <v>198</v>
+      </c>
+      <c r="F278" s="8">
+        <v>44088</v>
       </c>
     </row>
   </sheetData>

--- a/クリックポスト発送情報/ショッピングリスト.xlsx
+++ b/クリックポスト発送情報/ショッピングリスト.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -937,6 +937,22 @@
   </si>
   <si>
     <t>茂木儀清-&gt;628604593665</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 斉藤啓子-&gt;628605072362</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.A.COLLECTION 足立-&gt;628605072373</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T.A.COLLECTION 足立-&gt;628605072384</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野寺 香代-&gt; 628605072395</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1353,13 +1369,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
+      <selection pane="bottomRight" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1396,7 @@
       </c>
       <c r="C1" s="6">
         <f>SUM(E:E)</f>
-        <v>56872</v>
+        <v>57664</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1429,7 +1445,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="str">
         <f>COUNTIF(D:D,D4)*LEFT(I2,2) &amp; "元"</f>
-        <v>2740元</v>
+        <v>2780元</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
@@ -6121,6 +6137,74 @@
       </c>
       <c r="F278" s="8">
         <v>44088</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B279" s="10">
+        <v>276</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279" s="3">
+        <v>1</v>
+      </c>
+      <c r="E279" s="5">
+        <v>198</v>
+      </c>
+      <c r="F279" s="8">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B280" s="10">
+        <v>277</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D280" s="3">
+        <v>1</v>
+      </c>
+      <c r="E280" s="5">
+        <v>198</v>
+      </c>
+      <c r="F280" s="8">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B281" s="10">
+        <v>278</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D281" s="3">
+        <v>1</v>
+      </c>
+      <c r="E281" s="5">
+        <v>198</v>
+      </c>
+      <c r="F281" s="8">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B282" s="10">
+        <v>279</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282" s="3">
+        <v>1</v>
+      </c>
+      <c r="E282" s="5">
+        <v>198</v>
+      </c>
+      <c r="F282" s="8">
+        <v>44089</v>
       </c>
     </row>
   </sheetData>
